--- a/week-3/3-2-pivot-tables/tidy-data-pulse-check.xlsx
+++ b/week-3/3-2-pivot-tables/tidy-data-pulse-check.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-3\3-2-pivot-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14271"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="example_1" sheetId="1" r:id="rId1"/>
+    <sheet name="example_2" sheetId="2" r:id="rId2"/>
+    <sheet name="example_3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Model X</t>
+  </si>
+  <si>
+    <t>Region A</t>
+  </si>
+  <si>
+    <t>Region B</t>
+  </si>
+  <si>
+    <t>Region C</t>
+  </si>
+  <si>
+    <t>Model Y</t>
+  </si>
+  <si>
+    <t>Model Z</t>
+  </si>
+  <si>
+    <t>Office supplies</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Sku</t>
+  </si>
+  <si>
+    <t>5V0JM0</t>
+  </si>
+  <si>
+    <t>SP25FV</t>
+  </si>
+  <si>
+    <t>WBPYG2</t>
+  </si>
+  <si>
+    <t>P8P7VH</t>
+  </si>
+  <si>
+    <t>8GOSIQ</t>
+  </si>
   <si>
     <t>January</t>
   </si>
@@ -42,41 +124,20 @@
     <t>May</t>
   </si>
   <si>
-    <t>Region B</t>
-  </si>
-  <si>
-    <t>Model A</t>
-  </si>
-  <si>
-    <t>Model B</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Bar Equipment</t>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Region 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +145,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,22 +176,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,180 +556,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.4609375" customWidth="1"/>
+    <col min="6" max="6" width="1.4609375" customWidth="1"/>
+    <col min="8" max="8" width="1.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="E4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>143</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <v>130</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>882</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>611</v>
+        <v>125</v>
+      </c>
+      <c r="E18">
+        <v>130</v>
+      </c>
+      <c r="G18">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -578,142 +827,615 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>137</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>114</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>148</v>
+      </c>
+      <c r="E7">
+        <v>117</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>147</v>
+      </c>
+      <c r="E11">
+        <v>137</v>
+      </c>
+      <c r="F11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="5.6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>108</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>94</v>
+      </c>
+      <c r="D18">
+        <v>142</v>
+      </c>
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>119</v>
+      </c>
+      <c r="F19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <v>131</v>
+      </c>
+      <c r="E20">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>666</v>
+      </c>
+      <c r="D3" s="4">
+        <v>772</v>
+      </c>
+      <c r="E3" s="4">
+        <v>727</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1262</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1341</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1435</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1287</v>
+      </c>
+      <c r="E4" s="7">
+        <v>841</v>
+      </c>
+      <c r="F4" s="7">
+        <v>847</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1233</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>658</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1371</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1158</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1457</v>
+      </c>
+      <c r="G5" s="7">
+        <v>829</v>
+      </c>
+      <c r="H5" s="8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1146</v>
+      </c>
+      <c r="D6" s="7">
+        <v>869</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1250</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1286</v>
+      </c>
+      <c r="G6" s="7">
+        <v>777</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1310</v>
+      </c>
+      <c r="D7" s="10">
+        <v>698</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1479</v>
+      </c>
+      <c r="F7" s="10">
+        <v>888</v>
+      </c>
+      <c r="G7" s="10">
+        <v>978</v>
+      </c>
+      <c r="H7" s="11">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1071</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1287</v>
+      </c>
+      <c r="E10" s="4">
+        <v>997</v>
+      </c>
+      <c r="F10" s="4">
+        <v>798</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1321</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1231</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1469</v>
+      </c>
+      <c r="E11" s="7">
+        <v>780</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1375</v>
+      </c>
+      <c r="G11" s="7">
+        <v>677</v>
+      </c>
+      <c r="H11" s="8">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>832</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1018</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1075</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1429</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1398</v>
+      </c>
+      <c r="H12" s="8">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1482</v>
+      </c>
+      <c r="D13" s="7">
+        <v>797</v>
+      </c>
+      <c r="E13" s="7">
+        <v>680</v>
+      </c>
+      <c r="F13" s="7">
+        <v>873</v>
+      </c>
+      <c r="G13" s="7">
+        <v>556</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1292</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1266</v>
+      </c>
+      <c r="E14" s="10">
+        <v>701</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1357</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1032</v>
+      </c>
+      <c r="H14" s="11">
+        <v>828</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
